--- a/loy/stock.xlsx
+++ b/loy/stock.xlsx
@@ -26,19 +26,19 @@
     <t>Stock</t>
   </si>
   <si>
-    <t xml:space="preserve"> 100110308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telstra Call Guardian 301 </t>
+    <t xml:space="preserve"> 100111132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple EarPods with Lightning Connector </t>
   </si>
   <si>
     <t>In Stock</t>
   </si>
   <si>
-    <t xml:space="preserve"> 100110252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telstra Call Guardian 301 Additional Handset </t>
+    <t xml:space="preserve"> 100110635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tello Drone </t>
   </si>
 </sst>
 </file>
